--- a/cw7/normalizacja.xlsx
+++ b/cw7/normalizacja.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HUBERT\GEOINFORMATYKA\IV semestr\Bazy danych\Ćwiczenia\8 - 28.04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huber\Documents\GitHub\BazyDanych\cw7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD323D3-0C26-49F7-A8E4-0D815ADC8738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3081E1-7470-4D46-87CA-10EE8A96BF12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60C07969-AD3D-40C3-8DF4-1041AE435AE4}"/>
   </bookViews>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9486855-04BE-4290-AE92-ECE70CC705A5}">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
@@ -2013,6 +2013,24 @@
       <c r="F62" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="H62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2033,6 +2051,24 @@
       <c r="F63" s="6">
         <v>150</v>
       </c>
+      <c r="H63" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63" s="9">
+        <v>40</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2053,8 +2089,26 @@
       <c r="F64" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -2073,359 +2127,285 @@
       <c r="F65" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="H65" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="6">
+        <v>130</v>
+      </c>
+      <c r="F73" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="6">
+        <v>200</v>
+      </c>
+      <c r="F74" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="6">
+        <v>89</v>
+      </c>
+      <c r="F75" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D79" s="9">
         <v>40</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E79" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="G79" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="G80" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G81" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G82" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="6">
-        <v>130</v>
-      </c>
-      <c r="F78" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>2</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E79" s="6">
-        <v>200</v>
-      </c>
-      <c r="F79" s="6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>3</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="6">
-        <v>89</v>
-      </c>
-      <c r="F80" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="9">
-        <v>40</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2465,6 +2445,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
